--- a/notas.xlsx
+++ b/notas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Luis\informatica\web\backup\PI-Food\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Luis\informatica\web\proyectos\pi-food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30755E85-A909-4E32-8336-CE9DC86895B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A43C59-1A46-4FE9-BD19-F14FD75309E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/notas.xlsx
+++ b/notas.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Luis\informatica\web\proyectos\pi-food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A43C59-1A46-4FE9-BD19-F14FD75309E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF1248-2525-4EE6-92EF-89063DC7E7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="2" r:id="rId1"/>
-    <sheet name="postman" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Base de datos</t>
   </si>
@@ -279,52 +278,13 @@
   </si>
   <si>
     <t>(14, 'spread');</t>
-  </si>
-  <si>
-    <t>Pruebas Api</t>
-  </si>
-  <si>
-    <t>Postman</t>
-  </si>
-  <si>
-    <t>http://localhost:3001/recipe</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "title": "Milanesas Argentinas",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "summary": "Las milanesas son algo que estuvieron y estarán presentes en nuestros hogares por siempre. No hay chico que no le gusten, y seamos sinceros, grandes tampoco. Acá va la receta básica y fácil de milanesas.",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "healthScore": 87,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "readyInMinutes": 45,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "dishTypes": ["lunch", "main course", "main dish", "dinner"],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "steps": "1. Picar en una procesadora o a mano el ajo y perejil bien chiquito. 2. Batir los huevos , salpimentar a gusto y agregar al ajo y perejil. 3. Agregar las milanesas a la mezcla, dejando que se embeban bien y que reposen un rato. 4. Lo ideal es ponerlas en un tuper que luego se pueden guardar en la heladera hasta una semana. 5. Luego pasarlas por el pan rallado, aplastándolas bien con la palma de la mano. 6. Calentar el aceite a fuego mediano en una sartén alta. 7. Colocar las milanesas, y cocinarlas hasta que se doren, más o menos, 2 minutos de cada lado, controlando que no se quemen, sacar y poner en papel de cocina.",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "image": "https://locosxlaparrilla.com/wp-content/uploads/2015/02/Receta-recetas-locos-x-la-parrilla-locosxlaparrilla-receta-milanesas-argentinas-milanesas-argentinas-receta-milanesas.jpg",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "diets": ["gluten free", "whole 30", "dairy free", "primal"]</t>
-  </si>
-  <si>
-    <t>}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,20 +345,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="4" tint="0.59999389629810485"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -423,11 +369,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -436,13 +381,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -724,7 +664,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -962,97 +902,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3CA1BF-5851-48BA-83DF-349E0915B5F4}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="84.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="101" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{94F305C6-779C-4AE2-987D-12028DB90307}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
 </file>